--- a/data/지출내역.xlsx
+++ b/data/지출내역.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08A68FA-A469-4D42-9F58-7F262B03BA59}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94931F7A-554D-4E91-AABE-5F3A87EE8FAD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -473,9 +473,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BJ1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AQ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BA14" sqref="BA14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -826,12 +826,24 @@
       <c r="AZ2" s="2">
         <v>0</v>
       </c>
-      <c r="BA2" s="2"/>
-      <c r="BB2" s="2"/>
-      <c r="BC2" s="2"/>
-      <c r="BD2" s="2"/>
-      <c r="BE2" s="2"/>
-      <c r="BF2" s="2"/>
+      <c r="BA2" s="2">
+        <v>11500</v>
+      </c>
+      <c r="BB2" s="2">
+        <v>7000</v>
+      </c>
+      <c r="BC2" s="2">
+        <v>5500</v>
+      </c>
+      <c r="BD2" s="2">
+        <v>13000</v>
+      </c>
+      <c r="BE2" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF2" s="2">
+        <v>0</v>
+      </c>
       <c r="BG2" s="2"/>
       <c r="BH2" s="2"/>
       <c r="BI2" s="2"/>
@@ -994,12 +1006,24 @@
       <c r="AZ3" s="2">
         <v>17000</v>
       </c>
-      <c r="BA3" s="2"/>
-      <c r="BB3" s="2"/>
-      <c r="BC3" s="2"/>
-      <c r="BD3" s="2"/>
-      <c r="BE3" s="2"/>
-      <c r="BF3" s="2"/>
+      <c r="BA3" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB3" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC3" s="2">
+        <v>19000</v>
+      </c>
+      <c r="BD3" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE3" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF3" s="2">
+        <v>0</v>
+      </c>
       <c r="BG3" s="2"/>
       <c r="BH3" s="2"/>
       <c r="BI3" s="2"/>
@@ -1162,12 +1186,24 @@
       <c r="AZ4" s="2">
         <v>4500</v>
       </c>
-      <c r="BA4" s="2"/>
-      <c r="BB4" s="2"/>
-      <c r="BC4" s="2"/>
-      <c r="BD4" s="2"/>
-      <c r="BE4" s="2"/>
-      <c r="BF4" s="2"/>
+      <c r="BA4" s="2">
+        <v>4500</v>
+      </c>
+      <c r="BB4" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC4" s="2">
+        <v>4500</v>
+      </c>
+      <c r="BD4" s="2">
+        <v>4500</v>
+      </c>
+      <c r="BE4" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF4" s="2">
+        <v>4500</v>
+      </c>
       <c r="BG4" s="2"/>
       <c r="BH4" s="2"/>
       <c r="BI4" s="2"/>
@@ -1330,12 +1366,24 @@
       <c r="AZ5" s="2">
         <v>0</v>
       </c>
-      <c r="BA5" s="2"/>
-      <c r="BB5" s="2"/>
-      <c r="BC5" s="2"/>
-      <c r="BD5" s="2"/>
-      <c r="BE5" s="2"/>
-      <c r="BF5" s="2"/>
+      <c r="BA5" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB5" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD5" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE5" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF5" s="2">
+        <v>0</v>
+      </c>
       <c r="BG5" s="2"/>
       <c r="BH5" s="2"/>
       <c r="BI5" s="2"/>
@@ -1498,12 +1546,24 @@
       <c r="AZ6" s="2">
         <v>0</v>
       </c>
-      <c r="BA6" s="2"/>
-      <c r="BB6" s="2"/>
-      <c r="BC6" s="2"/>
-      <c r="BD6" s="2"/>
-      <c r="BE6" s="2"/>
-      <c r="BF6" s="2"/>
+      <c r="BA6" s="2">
+        <v>5400</v>
+      </c>
+      <c r="BB6" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD6" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF6" s="2">
+        <v>0</v>
+      </c>
       <c r="BG6" s="2"/>
       <c r="BH6" s="2"/>
       <c r="BI6" s="2"/>
@@ -1669,11 +1729,21 @@
       <c r="BA7" s="2">
         <v>500</v>
       </c>
-      <c r="BB7" s="2"/>
-      <c r="BC7" s="2"/>
-      <c r="BD7" s="2"/>
-      <c r="BE7" s="2"/>
-      <c r="BF7" s="2"/>
+      <c r="BB7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF7" s="2">
+        <v>0</v>
+      </c>
       <c r="BG7" s="2"/>
       <c r="BH7" s="2"/>
       <c r="BI7" s="2"/>
@@ -1836,12 +1906,24 @@
       <c r="AZ8" s="2">
         <v>0</v>
       </c>
-      <c r="BA8" s="2"/>
-      <c r="BB8" s="2"/>
-      <c r="BC8" s="2"/>
-      <c r="BD8" s="2"/>
-      <c r="BE8" s="2"/>
-      <c r="BF8" s="2"/>
+      <c r="BA8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF8" s="2">
+        <v>0</v>
+      </c>
       <c r="BG8" s="2"/>
       <c r="BH8" s="2"/>
       <c r="BI8" s="2"/>
@@ -2004,12 +2086,24 @@
       <c r="AZ9" s="2">
         <v>0</v>
       </c>
-      <c r="BA9" s="2"/>
-      <c r="BB9" s="2"/>
-      <c r="BC9" s="2"/>
-      <c r="BD9" s="2"/>
-      <c r="BE9" s="2"/>
-      <c r="BF9" s="2"/>
+      <c r="BA9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF9" s="2">
+        <v>0</v>
+      </c>
       <c r="BG9" s="2"/>
       <c r="BH9" s="2"/>
       <c r="BI9" s="2"/>
@@ -2172,12 +2266,24 @@
       <c r="AZ10" s="2">
         <v>0</v>
       </c>
-      <c r="BA10" s="2"/>
-      <c r="BB10" s="2"/>
-      <c r="BC10" s="2"/>
-      <c r="BD10" s="2"/>
-      <c r="BE10" s="2"/>
-      <c r="BF10" s="2"/>
+      <c r="BA10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC10" s="2">
+        <v>4800</v>
+      </c>
+      <c r="BD10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF10" s="2">
+        <v>0</v>
+      </c>
       <c r="BG10" s="2"/>
       <c r="BH10" s="2"/>
       <c r="BI10" s="2"/>
@@ -2340,12 +2446,24 @@
       <c r="AZ11" s="2">
         <v>0</v>
       </c>
-      <c r="BA11" s="2"/>
-      <c r="BB11" s="2"/>
-      <c r="BC11" s="2"/>
-      <c r="BD11" s="2"/>
-      <c r="BE11" s="2"/>
-      <c r="BF11" s="2"/>
+      <c r="BA11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF11" s="2">
+        <v>0</v>
+      </c>
       <c r="BG11" s="2"/>
       <c r="BH11" s="2"/>
       <c r="BI11" s="2"/>
@@ -2508,12 +2626,24 @@
       <c r="AZ12" s="2">
         <v>0</v>
       </c>
-      <c r="BA12" s="2"/>
-      <c r="BB12" s="2"/>
-      <c r="BC12" s="2"/>
-      <c r="BD12" s="2"/>
-      <c r="BE12" s="2"/>
-      <c r="BF12" s="2"/>
+      <c r="BA12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF12" s="2">
+        <v>0</v>
+      </c>
       <c r="BG12" s="2"/>
       <c r="BH12" s="2"/>
       <c r="BI12" s="2"/>
@@ -2729,19 +2859,19 @@
       </c>
       <c r="BA13" s="2">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>21900</v>
       </c>
       <c r="BB13" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="BC13" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>33800</v>
       </c>
       <c r="BD13" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17500</v>
       </c>
       <c r="BE13" s="2">
         <f t="shared" si="0"/>
@@ -2749,7 +2879,7 @@
       </c>
       <c r="BF13" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="BG13" s="2">
         <f t="shared" si="0"/>
@@ -2923,7 +3053,25 @@
         <v>110750</v>
       </c>
       <c r="AZ14" s="2">
-        <v>109350</v>
+        <v>87850</v>
+      </c>
+      <c r="BA14" s="2">
+        <v>65950</v>
+      </c>
+      <c r="BB14" s="2">
+        <v>58950</v>
+      </c>
+      <c r="BC14" s="2">
+        <v>25150</v>
+      </c>
+      <c r="BD14" s="2">
+        <v>7650</v>
+      </c>
+      <c r="BE14" s="2">
+        <v>7650</v>
+      </c>
+      <c r="BF14" s="2">
+        <v>3150</v>
       </c>
     </row>
     <row r="16" spans="1:62" x14ac:dyDescent="0.4">
@@ -2963,23 +3111,23 @@
         <v>0</v>
       </c>
       <c r="B17" s="2">
-        <f>SUM(B2:H2)</f>
+        <f t="shared" ref="B17:B28" si="1">SUM(B2:H2)</f>
         <v>33500</v>
       </c>
       <c r="C17" s="2">
-        <f>SUM(I2:O2)</f>
+        <f t="shared" ref="C17:C28" si="2">SUM(I2:O2)</f>
         <v>10000</v>
       </c>
       <c r="D17" s="2">
-        <f>SUM(P2:V2)</f>
+        <f t="shared" ref="D17:D28" si="3">SUM(P2:V2)</f>
         <v>18400</v>
       </c>
       <c r="E17" s="2">
-        <f>SUM(W2:AC2)</f>
+        <f t="shared" ref="E17:E28" si="4">SUM(W2:AC2)</f>
         <v>0</v>
       </c>
       <c r="F17" s="2">
-        <f>SUM(B2:AF2)</f>
+        <f t="shared" ref="F17:F28" si="5">SUM(B2:AF2)</f>
         <v>61900</v>
       </c>
       <c r="G17" s="2">
@@ -2992,7 +3140,7 @@
       </c>
       <c r="I17" s="2">
         <f>SUM(AU2:BA2)</f>
-        <v>5500</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
@@ -3000,35 +3148,35 @@
         <v>1</v>
       </c>
       <c r="B18" s="2">
-        <f>SUM(B3:H3)</f>
+        <f t="shared" si="1"/>
         <v>158400</v>
       </c>
       <c r="C18" s="2">
-        <f>SUM(I3:O3)</f>
+        <f t="shared" si="2"/>
         <v>100800</v>
       </c>
       <c r="D18" s="2">
-        <f>SUM(P3:V3)</f>
+        <f t="shared" si="3"/>
         <v>35600</v>
       </c>
       <c r="E18" s="2">
-        <f>SUM(W3:AC3)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F18" s="2">
-        <f>SUM(B3:AF3)</f>
+        <f t="shared" si="5"/>
         <v>294800</v>
       </c>
       <c r="G18" s="2">
-        <f t="shared" ref="G18:G28" si="1">SUM(AG3:AM3)</f>
+        <f t="shared" ref="G18:G28" si="6">SUM(AG3:AM3)</f>
         <v>54500</v>
       </c>
       <c r="H18" s="2">
-        <f t="shared" ref="H18:H28" si="2">SUM(AN3:AT3)</f>
+        <f t="shared" ref="H18:H28" si="7">SUM(AN3:AT3)</f>
         <v>45000</v>
       </c>
       <c r="I18" s="2">
-        <f t="shared" ref="I18:I28" si="3">SUM(AU3:BA3)</f>
+        <f t="shared" ref="I18:I28" si="8">SUM(AU3:BA3)</f>
         <v>30000</v>
       </c>
     </row>
@@ -3037,36 +3185,36 @@
         <v>2</v>
       </c>
       <c r="B19" s="2">
-        <f>SUM(B4:H4)</f>
-        <v>22500</v>
-      </c>
-      <c r="C19" s="2">
-        <f>SUM(I4:O4)</f>
-        <v>18000</v>
-      </c>
-      <c r="D19" s="2">
-        <f>SUM(P4:V4)</f>
-        <v>22500</v>
-      </c>
-      <c r="E19" s="2">
-        <f>SUM(W4:AC4)</f>
-        <v>9000</v>
-      </c>
-      <c r="F19" s="2">
-        <f>SUM(B4:AF4)</f>
-        <v>72000</v>
-      </c>
-      <c r="G19" s="2">
         <f t="shared" si="1"/>
         <v>22500</v>
       </c>
+      <c r="C19" s="2">
+        <f t="shared" si="2"/>
+        <v>18000</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="3"/>
+        <v>22500</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="4"/>
+        <v>9000</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="5"/>
+        <v>72000</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="6"/>
+        <v>22500</v>
+      </c>
       <c r="H19" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>22500</v>
       </c>
       <c r="I19" s="2">
-        <f t="shared" si="3"/>
-        <v>13500</v>
+        <f t="shared" si="8"/>
+        <v>18000</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.4">
@@ -3074,35 +3222,35 @@
         <v>4</v>
       </c>
       <c r="B20" s="2">
-        <f>SUM(B5:H5)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C20" s="2">
-        <f>SUM(I5:O5)</f>
+        <f t="shared" si="2"/>
         <v>8400</v>
       </c>
       <c r="D20" s="2">
-        <f>SUM(P5:V5)</f>
+        <f t="shared" si="3"/>
         <v>3300</v>
       </c>
       <c r="E20" s="2">
-        <f>SUM(W5:AC5)</f>
+        <f t="shared" si="4"/>
         <v>3200</v>
       </c>
       <c r="F20" s="2">
-        <f>SUM(B5:AF5)</f>
+        <f t="shared" si="5"/>
         <v>14900</v>
       </c>
       <c r="G20" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>950</v>
       </c>
       <c r="H20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>3300</v>
       </c>
       <c r="I20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2000</v>
       </c>
     </row>
@@ -3111,36 +3259,36 @@
         <v>7</v>
       </c>
       <c r="B21" s="2">
-        <f>SUM(B6:H6)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C21" s="2">
-        <f>SUM(I6:O6)</f>
+        <f t="shared" si="2"/>
         <v>10500</v>
       </c>
       <c r="D21" s="2">
-        <f>SUM(P6:V6)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E21" s="2">
-        <f>SUM(W6:AC6)</f>
+        <f t="shared" si="4"/>
         <v>5100</v>
       </c>
       <c r="F21" s="2">
-        <f>SUM(B6:AF6)</f>
+        <f t="shared" si="5"/>
         <v>15600</v>
       </c>
       <c r="G21" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>4000</v>
       </c>
       <c r="H21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>8100</v>
       </c>
       <c r="I21" s="2">
-        <f t="shared" si="3"/>
-        <v>14000</v>
+        <f t="shared" si="8"/>
+        <v>19400</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.4">
@@ -3148,35 +3296,35 @@
         <v>8</v>
       </c>
       <c r="B22" s="2">
-        <f>SUM(B7:H7)</f>
+        <f t="shared" si="1"/>
         <v>1600</v>
       </c>
       <c r="C22" s="2">
-        <f>SUM(I7:O7)</f>
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
       <c r="D22" s="2">
-        <f>SUM(P7:V7)</f>
+        <f t="shared" si="3"/>
         <v>1000</v>
       </c>
       <c r="E22" s="2">
-        <f>SUM(W7:AC7)</f>
+        <f t="shared" si="4"/>
         <v>1300</v>
       </c>
       <c r="F22" s="2">
-        <f>SUM(B7:AF7)</f>
+        <f t="shared" si="5"/>
         <v>4900</v>
       </c>
       <c r="G22" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1700</v>
       </c>
       <c r="H22" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1400</v>
       </c>
       <c r="I22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3300</v>
       </c>
     </row>
@@ -3185,35 +3333,35 @@
         <v>5</v>
       </c>
       <c r="B23" s="2">
-        <f>SUM(B8:H8)</f>
+        <f t="shared" si="1"/>
         <v>29640</v>
       </c>
       <c r="C23" s="2">
-        <f>SUM(I8:O8)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D23" s="2">
-        <f>SUM(P8:V8)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E23" s="2">
-        <f>SUM(W8:AC8)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F23" s="2">
-        <f>SUM(B8:AF8)</f>
+        <f t="shared" si="5"/>
         <v>29640</v>
       </c>
       <c r="G23" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H23" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I23" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3600</v>
       </c>
     </row>
@@ -3222,35 +3370,35 @@
         <v>3</v>
       </c>
       <c r="B24" s="2">
-        <f>SUM(B9:H9)</f>
+        <f t="shared" si="1"/>
         <v>10000</v>
       </c>
       <c r="C24" s="2">
-        <f>SUM(I9:O9)</f>
+        <f t="shared" si="2"/>
         <v>7500</v>
       </c>
       <c r="D24" s="2">
-        <f>SUM(P9:V9)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E24" s="2">
-        <f>SUM(W9:AC9)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F24" s="2">
-        <f>SUM(B9:AF9)</f>
+        <f t="shared" si="5"/>
         <v>17500</v>
       </c>
       <c r="G24" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H24" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>3000</v>
       </c>
       <c r="I24" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3000</v>
       </c>
     </row>
@@ -3259,35 +3407,35 @@
         <v>6</v>
       </c>
       <c r="B25" s="2">
-        <f>SUM(B10:H10)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C25" s="2">
-        <f>SUM(I10:O10)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D25" s="2">
-        <f>SUM(P10:V10)</f>
+        <f t="shared" si="3"/>
         <v>16600</v>
       </c>
       <c r="E25" s="2">
-        <f>SUM(W10:AC10)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F25" s="2">
-        <f>SUM(B10:AF10)</f>
+        <f t="shared" si="5"/>
         <v>16600</v>
       </c>
       <c r="G25" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2900</v>
       </c>
       <c r="H25" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>5700</v>
       </c>
       <c r="I25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>5000</v>
       </c>
     </row>
@@ -3296,35 +3444,35 @@
         <v>9</v>
       </c>
       <c r="B26" s="2">
-        <f>SUM(B11:H11)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C26" s="2">
-        <f>SUM(I11:O11)</f>
+        <f t="shared" si="2"/>
         <v>2600</v>
       </c>
       <c r="D26" s="2">
-        <f>SUM(P11:V11)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E26" s="2">
-        <f>SUM(W11:AC11)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F26" s="2">
-        <f>SUM(B11:AF11)</f>
+        <f t="shared" si="5"/>
         <v>6260</v>
       </c>
       <c r="G26" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1200</v>
       </c>
       <c r="H26" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>4500</v>
       </c>
       <c r="I26" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3333,35 +3481,35 @@
         <v>11</v>
       </c>
       <c r="B27" s="2">
-        <f>SUM(B12:H12)</f>
+        <f t="shared" si="1"/>
         <v>-58500</v>
       </c>
       <c r="C27" s="2">
-        <f>SUM(I12:O12)</f>
+        <f t="shared" si="2"/>
         <v>-26000</v>
       </c>
       <c r="D27" s="2">
-        <f>SUM(P12:V12)</f>
+        <f t="shared" si="3"/>
         <v>-12400</v>
       </c>
       <c r="E27" s="2">
-        <f>SUM(W12:AC12)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F27" s="2">
-        <f>SUM(B12:AF12)</f>
+        <f t="shared" si="5"/>
         <v>-98400</v>
       </c>
       <c r="G27" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H27" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-25000</v>
       </c>
       <c r="I27" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3370,36 +3518,36 @@
         <v>10</v>
       </c>
       <c r="B28" s="2">
-        <f>SUM(B13:H13)</f>
+        <f t="shared" si="1"/>
         <v>197140</v>
       </c>
       <c r="C28" s="2">
-        <f>SUM(I13:O13)</f>
+        <f t="shared" si="2"/>
         <v>132800</v>
       </c>
       <c r="D28" s="2">
-        <f>SUM(P13:V13)</f>
+        <f t="shared" si="3"/>
         <v>85000</v>
       </c>
       <c r="E28" s="2">
-        <f>SUM(W13:AC13)</f>
+        <f t="shared" si="4"/>
         <v>18600</v>
       </c>
       <c r="F28" s="2">
-        <f>SUM(B13:AF13)</f>
+        <f t="shared" si="5"/>
         <v>435700</v>
       </c>
       <c r="G28" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>114050</v>
       </c>
       <c r="H28" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>119000</v>
       </c>
       <c r="I28" s="2">
-        <f t="shared" si="3"/>
-        <v>79900</v>
+        <f t="shared" si="8"/>
+        <v>101300</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.4">
@@ -3426,6 +3574,9 @@
       </c>
       <c r="H29" s="2">
         <v>167250</v>
+      </c>
+      <c r="I29" s="2">
+        <v>65950</v>
       </c>
     </row>
     <row r="1048576" spans="4:6" x14ac:dyDescent="0.4">
